--- a/data/raw_data/2020/permits-by-nationality-2020.xlsx
+++ b/data/raw_data/2020/permits-by-nationality-2020.xlsx
@@ -1,20 +1,23 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23426"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24334"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="J:\WPERMITS\Dashboard - Monthly Stats &amp; Web Statistics\WEBSITE Statistics\2020\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\My Drive\ESTUDOS DATA SCIENCE\ie-employment-permit\data\raw_data\2020\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{A8E427B2-1FC3-468F-AD84-5C2CF37647A8}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6716E31B-3473-4616-8FAD-C0D9A240974A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{92975839-8D24-4B0C-A5EA-F6894FD1DB29}"/>
+    <workbookView xWindow="20370" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{92975839-8D24-4B0C-A5EA-F6894FD1DB29}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
+  <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$2:$D$126</definedName>
+  </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -33,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="129" uniqueCount="129">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="129" uniqueCount="123">
   <si>
     <t>2020</t>
   </si>
@@ -62,9 +65,6 @@
     <t>Pakistan</t>
   </si>
   <si>
-    <t>United States of America</t>
-  </si>
-  <si>
     <t>China</t>
   </si>
   <si>
@@ -95,18 +95,12 @@
     <t>Turkey</t>
   </si>
   <si>
-    <t>Russian Federation</t>
-  </si>
-  <si>
     <t>Zimbabwe</t>
   </si>
   <si>
     <t>Vietnam</t>
   </si>
   <si>
-    <t>Kosova</t>
-  </si>
-  <si>
     <t>Japan</t>
   </si>
   <si>
@@ -140,33 +134,15 @@
     <t>Bangladesh</t>
   </si>
   <si>
-    <t>Korea, Republic of</t>
-  </si>
-  <si>
     <t>Jordan</t>
   </si>
   <si>
-    <t>Moldova, Republic of</t>
-  </si>
-  <si>
-    <t>Iran, Islamic Republic of</t>
-  </si>
-  <si>
     <t>Venezuela</t>
   </si>
   <si>
-    <t>Hong Kong</t>
-  </si>
-  <si>
-    <t>Taiwan</t>
-  </si>
-  <si>
     <t>Libya</t>
   </si>
   <si>
-    <t>Macedonia, The Former Yugoslav Republic of</t>
-  </si>
-  <si>
     <t>Saudi Arabia</t>
   </si>
   <si>
@@ -182,9 +158,6 @@
     <t>Morocco</t>
   </si>
   <si>
-    <t>Syrian Arab Republic</t>
-  </si>
-  <si>
     <t>Albania</t>
   </si>
   <si>
@@ -233,9 +206,6 @@
     <t>Armenia</t>
   </si>
   <si>
-    <t>Palestine</t>
-  </si>
-  <si>
     <t>Bolivia</t>
   </si>
   <si>
@@ -254,9 +224,6 @@
     <t>Botswana</t>
   </si>
   <si>
-    <t>Brunei Darussalam</t>
-  </si>
-  <si>
     <t>Namibia</t>
   </si>
   <si>
@@ -269,15 +236,9 @@
     <t>Honduras</t>
   </si>
   <si>
-    <t>Swaziland</t>
-  </si>
-  <si>
     <t>Yemen</t>
   </si>
   <si>
-    <t>Congo, The Democratic Republic of the</t>
-  </si>
-  <si>
     <t>Ecuador</t>
   </si>
   <si>
@@ -326,12 +287,6 @@
     <t>Barbados</t>
   </si>
   <si>
-    <t>Kosovo</t>
-  </si>
-  <si>
-    <t>Tanzania, United Republic of</t>
-  </si>
-  <si>
     <t>Uzbekistan</t>
   </si>
   <si>
@@ -344,9 +299,6 @@
     <t>Cambodia</t>
   </si>
   <si>
-    <t>Channel Islands</t>
-  </si>
-  <si>
     <t>Congo</t>
   </si>
   <si>
@@ -371,9 +323,6 @@
     <t>Guatemala</t>
   </si>
   <si>
-    <t>Ivory Coast</t>
-  </si>
-  <si>
     <t>Kuwait</t>
   </si>
   <si>
@@ -398,21 +347,9 @@
     <t>Nicaragua</t>
   </si>
   <si>
-    <t>Republic of Serbia</t>
-  </si>
-  <si>
-    <t>Saint Kitts and Nevis</t>
-  </si>
-  <si>
-    <t>Saint Vincent and the Grenadines</t>
-  </si>
-  <si>
     <t>Tajikistan</t>
   </si>
   <si>
-    <t>Tibet</t>
-  </si>
-  <si>
     <t>Paraguay</t>
   </si>
   <si>
@@ -420,6 +357,54 @@
   </si>
   <si>
     <t>Seychelles</t>
+  </si>
+  <si>
+    <t>United States</t>
+  </si>
+  <si>
+    <t>Russia</t>
+  </si>
+  <si>
+    <t>South Korea</t>
+  </si>
+  <si>
+    <t>Moldova</t>
+  </si>
+  <si>
+    <t>Iran</t>
+  </si>
+  <si>
+    <t>North Macedonia</t>
+  </si>
+  <si>
+    <t>Syria</t>
+  </si>
+  <si>
+    <t>State of Palestine</t>
+  </si>
+  <si>
+    <t>Brunei</t>
+  </si>
+  <si>
+    <t>Eswatini</t>
+  </si>
+  <si>
+    <t>DR Congo</t>
+  </si>
+  <si>
+    <t>Tanzania</t>
+  </si>
+  <si>
+    <t>United Kingdom</t>
+  </si>
+  <si>
+    <t>Côte d'Ivoire</t>
+  </si>
+  <si>
+    <t>Saint Kitts &amp; Nevis</t>
+  </si>
+  <si>
+    <t>St. Vincent &amp; Grenadines</t>
   </si>
 </sst>
 </file>
@@ -517,13 +502,13 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="3" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
     <xf numFmtId="3" fontId="3" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="3" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -841,7 +826,7 @@
   <dimension ref="A1:D126"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F1" sqref="F1:I1048576"/>
+      <selection activeCell="F3" sqref="F3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -855,11 +840,11 @@
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" s="1"/>
-      <c r="B1" s="9" t="s">
+      <c r="B1" s="10" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="10"/>
-      <c r="D1" s="10"/>
+      <c r="C1" s="11"/>
+      <c r="D1" s="11"/>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" s="3" t="s">
@@ -891,7 +876,7 @@
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A4" s="11" t="s">
+      <c r="A4" s="9" t="s">
         <v>6</v>
       </c>
       <c r="B4" s="7">
@@ -905,7 +890,7 @@
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A5" s="11" t="s">
+      <c r="A5" s="9" t="s">
         <v>7</v>
       </c>
       <c r="B5" s="7">
@@ -919,7 +904,7 @@
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A6" s="11" t="s">
+      <c r="A6" s="9" t="s">
         <v>8</v>
       </c>
       <c r="B6" s="7">
@@ -933,8 +918,8 @@
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A7" s="11" t="s">
-        <v>9</v>
+      <c r="A7" s="9" t="s">
+        <v>107</v>
       </c>
       <c r="B7" s="7">
         <v>871</v>
@@ -947,8 +932,8 @@
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A8" s="11" t="s">
-        <v>10</v>
+      <c r="A8" s="9" t="s">
+        <v>9</v>
       </c>
       <c r="B8" s="7">
         <v>833</v>
@@ -961,8 +946,8 @@
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A9" s="11" t="s">
-        <v>11</v>
+      <c r="A9" s="9" t="s">
+        <v>10</v>
       </c>
       <c r="B9" s="7">
         <v>684</v>
@@ -975,8 +960,8 @@
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A10" s="11" t="s">
-        <v>12</v>
+      <c r="A10" s="9" t="s">
+        <v>11</v>
       </c>
       <c r="B10" s="7">
         <v>654</v>
@@ -989,8 +974,8 @@
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A11" s="11" t="s">
-        <v>13</v>
+      <c r="A11" s="9" t="s">
+        <v>12</v>
       </c>
       <c r="B11" s="7">
         <v>525</v>
@@ -1003,8 +988,8 @@
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A12" s="11" t="s">
-        <v>14</v>
+      <c r="A12" s="9" t="s">
+        <v>13</v>
       </c>
       <c r="B12" s="7">
         <v>483</v>
@@ -1017,8 +1002,8 @@
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A13" s="11" t="s">
-        <v>15</v>
+      <c r="A13" s="9" t="s">
+        <v>14</v>
       </c>
       <c r="B13" s="7">
         <v>353</v>
@@ -1031,8 +1016,8 @@
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A14" s="11" t="s">
-        <v>16</v>
+      <c r="A14" s="9" t="s">
+        <v>15</v>
       </c>
       <c r="B14" s="7">
         <v>300</v>
@@ -1045,8 +1030,8 @@
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A15" s="11" t="s">
-        <v>18</v>
+      <c r="A15" s="9" t="s">
+        <v>17</v>
       </c>
       <c r="B15" s="7">
         <v>282</v>
@@ -1059,8 +1044,8 @@
       </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A16" s="11" t="s">
-        <v>17</v>
+      <c r="A16" s="9" t="s">
+        <v>16</v>
       </c>
       <c r="B16" s="7">
         <v>282</v>
@@ -1073,8 +1058,8 @@
       </c>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A17" s="11" t="s">
-        <v>19</v>
+      <c r="A17" s="9" t="s">
+        <v>18</v>
       </c>
       <c r="B17" s="7">
         <v>271</v>
@@ -1087,8 +1072,8 @@
       </c>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A18" s="11" t="s">
-        <v>20</v>
+      <c r="A18" s="9" t="s">
+        <v>108</v>
       </c>
       <c r="B18" s="7">
         <v>205</v>
@@ -1101,8 +1086,8 @@
       </c>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A19" s="11" t="s">
-        <v>21</v>
+      <c r="A19" s="9" t="s">
+        <v>19</v>
       </c>
       <c r="B19" s="7">
         <v>165</v>
@@ -1115,8 +1100,8 @@
       </c>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A20" s="11" t="s">
-        <v>22</v>
+      <c r="A20" s="9" t="s">
+        <v>20</v>
       </c>
       <c r="B20" s="7">
         <v>155</v>
@@ -1129,8 +1114,8 @@
       </c>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A21" s="11" t="s">
-        <v>23</v>
+      <c r="A21" s="9" t="s">
+        <v>47</v>
       </c>
       <c r="B21" s="7">
         <v>129</v>
@@ -1141,8 +1126,8 @@
       </c>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A22" s="11" t="s">
-        <v>24</v>
+      <c r="A22" s="9" t="s">
+        <v>21</v>
       </c>
       <c r="B22" s="7">
         <v>114</v>
@@ -1153,8 +1138,8 @@
       <c r="D22" s="8"/>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A23" s="11" t="s">
-        <v>25</v>
+      <c r="A23" s="9" t="s">
+        <v>22</v>
       </c>
       <c r="B23" s="7">
         <v>98</v>
@@ -1167,8 +1152,8 @@
       </c>
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A24" s="11" t="s">
-        <v>26</v>
+      <c r="A24" s="9" t="s">
+        <v>23</v>
       </c>
       <c r="B24" s="7">
         <v>95</v>
@@ -1181,8 +1166,8 @@
       </c>
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A25" s="11" t="s">
-        <v>27</v>
+      <c r="A25" s="9" t="s">
+        <v>24</v>
       </c>
       <c r="B25" s="7">
         <v>86</v>
@@ -1195,8 +1180,8 @@
       </c>
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A26" s="11" t="s">
-        <v>28</v>
+      <c r="A26" s="9" t="s">
+        <v>25</v>
       </c>
       <c r="B26" s="7">
         <v>83</v>
@@ -1209,8 +1194,8 @@
       </c>
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A27" s="11" t="s">
-        <v>29</v>
+      <c r="A27" s="9" t="s">
+        <v>26</v>
       </c>
       <c r="B27" s="7">
         <v>68</v>
@@ -1223,8 +1208,8 @@
       </c>
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A28" s="11" t="s">
-        <v>30</v>
+      <c r="A28" s="9" t="s">
+        <v>27</v>
       </c>
       <c r="B28" s="7">
         <v>61</v>
@@ -1235,8 +1220,8 @@
       <c r="D28" s="7"/>
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A29" s="11" t="s">
-        <v>31</v>
+      <c r="A29" s="9" t="s">
+        <v>28</v>
       </c>
       <c r="B29" s="7">
         <v>60</v>
@@ -1249,8 +1234,8 @@
       </c>
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A30" s="11" t="s">
-        <v>33</v>
+      <c r="A30" s="9" t="s">
+        <v>30</v>
       </c>
       <c r="B30" s="7">
         <v>52</v>
@@ -1263,8 +1248,8 @@
       </c>
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A31" s="11" t="s">
-        <v>32</v>
+      <c r="A31" s="9" t="s">
+        <v>29</v>
       </c>
       <c r="B31" s="7">
         <v>51</v>
@@ -1277,8 +1262,8 @@
       </c>
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A32" s="11" t="s">
-        <v>34</v>
+      <c r="A32" s="9" t="s">
+        <v>31</v>
       </c>
       <c r="B32" s="7">
         <v>51</v>
@@ -1291,8 +1276,8 @@
       </c>
     </row>
     <row r="33" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A33" s="11" t="s">
-        <v>35</v>
+      <c r="A33" s="9" t="s">
+        <v>109</v>
       </c>
       <c r="B33" s="7">
         <v>49</v>
@@ -1305,8 +1290,8 @@
       </c>
     </row>
     <row r="34" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A34" s="11" t="s">
-        <v>36</v>
+      <c r="A34" s="9" t="s">
+        <v>32</v>
       </c>
       <c r="B34" s="7">
         <v>42</v>
@@ -1317,8 +1302,8 @@
       <c r="D34" s="7"/>
     </row>
     <row r="35" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A35" s="11" t="s">
-        <v>37</v>
+      <c r="A35" s="9" t="s">
+        <v>110</v>
       </c>
       <c r="B35" s="7">
         <v>41</v>
@@ -1331,8 +1316,8 @@
       </c>
     </row>
     <row r="36" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A36" s="11" t="s">
-        <v>38</v>
+      <c r="A36" s="9" t="s">
+        <v>111</v>
       </c>
       <c r="B36" s="7">
         <v>39</v>
@@ -1345,8 +1330,8 @@
       </c>
     </row>
     <row r="37" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A37" s="11" t="s">
-        <v>41</v>
+      <c r="A37" s="9" t="s">
+        <v>9</v>
       </c>
       <c r="B37" s="7">
         <v>37</v>
@@ -1359,8 +1344,8 @@
       </c>
     </row>
     <row r="38" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A38" s="11" t="s">
-        <v>39</v>
+      <c r="A38" s="9" t="s">
+        <v>33</v>
       </c>
       <c r="B38" s="7">
         <v>37</v>
@@ -1371,8 +1356,8 @@
       <c r="D38" s="7"/>
     </row>
     <row r="39" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A39" s="11" t="s">
-        <v>40</v>
+      <c r="A39" s="9" t="s">
+        <v>9</v>
       </c>
       <c r="B39" s="7">
         <v>36</v>
@@ -1385,8 +1370,8 @@
       </c>
     </row>
     <row r="40" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A40" s="11" t="s">
-        <v>42</v>
+      <c r="A40" s="9" t="s">
+        <v>34</v>
       </c>
       <c r="B40" s="7">
         <v>36</v>
@@ -1397,8 +1382,8 @@
       <c r="D40" s="7"/>
     </row>
     <row r="41" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A41" s="11" t="s">
-        <v>43</v>
+      <c r="A41" s="9" t="s">
+        <v>112</v>
       </c>
       <c r="B41" s="7">
         <v>35</v>
@@ -1407,8 +1392,8 @@
       <c r="D41" s="8"/>
     </row>
     <row r="42" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A42" s="11" t="s">
-        <v>44</v>
+      <c r="A42" s="9" t="s">
+        <v>35</v>
       </c>
       <c r="B42" s="7">
         <v>35</v>
@@ -1421,8 +1406,8 @@
       </c>
     </row>
     <row r="43" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A43" s="11" t="s">
-        <v>45</v>
+      <c r="A43" s="9" t="s">
+        <v>36</v>
       </c>
       <c r="B43" s="7">
         <v>34</v>
@@ -1435,8 +1420,8 @@
       </c>
     </row>
     <row r="44" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A44" s="11" t="s">
-        <v>46</v>
+      <c r="A44" s="9" t="s">
+        <v>37</v>
       </c>
       <c r="B44" s="7">
         <v>33</v>
@@ -1449,8 +1434,8 @@
       </c>
     </row>
     <row r="45" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A45" s="11" t="s">
-        <v>47</v>
+      <c r="A45" s="9" t="s">
+        <v>38</v>
       </c>
       <c r="B45" s="7">
         <v>32</v>
@@ -1463,8 +1448,8 @@
       </c>
     </row>
     <row r="46" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A46" s="11" t="s">
-        <v>48</v>
+      <c r="A46" s="9" t="s">
+        <v>39</v>
       </c>
       <c r="B46" s="7">
         <v>31</v>
@@ -1477,8 +1462,8 @@
       </c>
     </row>
     <row r="47" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A47" s="11" t="s">
-        <v>49</v>
+      <c r="A47" s="9" t="s">
+        <v>113</v>
       </c>
       <c r="B47" s="7">
         <v>30</v>
@@ -1489,8 +1474,8 @@
       </c>
     </row>
     <row r="48" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A48" s="11" t="s">
-        <v>50</v>
+      <c r="A48" s="9" t="s">
+        <v>40</v>
       </c>
       <c r="B48" s="7">
         <v>29</v>
@@ -1503,8 +1488,8 @@
       </c>
     </row>
     <row r="49" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A49" s="11" t="s">
-        <v>51</v>
+      <c r="A49" s="9" t="s">
+        <v>41</v>
       </c>
       <c r="B49" s="7">
         <v>29</v>
@@ -1515,8 +1500,8 @@
       <c r="D49" s="7"/>
     </row>
     <row r="50" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A50" s="11" t="s">
-        <v>52</v>
+      <c r="A50" s="9" t="s">
+        <v>42</v>
       </c>
       <c r="B50" s="7">
         <v>25</v>
@@ -1529,8 +1514,8 @@
       </c>
     </row>
     <row r="51" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A51" s="11" t="s">
-        <v>53</v>
+      <c r="A51" s="9" t="s">
+        <v>43</v>
       </c>
       <c r="B51" s="7">
         <v>24</v>
@@ -1541,8 +1526,8 @@
       <c r="D51" s="8"/>
     </row>
     <row r="52" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A52" s="11" t="s">
-        <v>55</v>
+      <c r="A52" s="9" t="s">
+        <v>45</v>
       </c>
       <c r="B52" s="7">
         <v>23</v>
@@ -1553,8 +1538,8 @@
       <c r="D52" s="8"/>
     </row>
     <row r="53" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A53" s="11" t="s">
-        <v>54</v>
+      <c r="A53" s="9" t="s">
+        <v>44</v>
       </c>
       <c r="B53" s="7">
         <v>23</v>
@@ -1563,8 +1548,8 @@
       <c r="D53" s="8"/>
     </row>
     <row r="54" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A54" s="11" t="s">
-        <v>56</v>
+      <c r="A54" s="9" t="s">
+        <v>46</v>
       </c>
       <c r="B54" s="7">
         <v>22</v>
@@ -1577,8 +1562,8 @@
       </c>
     </row>
     <row r="55" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A55" s="11" t="s">
-        <v>57</v>
+      <c r="A55" s="9" t="s">
+        <v>47</v>
       </c>
       <c r="B55" s="7">
         <v>22</v>
@@ -1591,8 +1576,8 @@
       </c>
     </row>
     <row r="56" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A56" s="11" t="s">
-        <v>58</v>
+      <c r="A56" s="9" t="s">
+        <v>48</v>
       </c>
       <c r="B56" s="7">
         <v>21</v>
@@ -1603,8 +1588,8 @@
       <c r="D56" s="7"/>
     </row>
     <row r="57" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A57" s="11" t="s">
-        <v>59</v>
+      <c r="A57" s="9" t="s">
+        <v>49</v>
       </c>
       <c r="B57" s="7">
         <v>17</v>
@@ -1615,8 +1600,8 @@
       <c r="D57" s="8"/>
     </row>
     <row r="58" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A58" s="11" t="s">
-        <v>60</v>
+      <c r="A58" s="9" t="s">
+        <v>50</v>
       </c>
       <c r="B58" s="7">
         <v>16</v>
@@ -1629,8 +1614,8 @@
       </c>
     </row>
     <row r="59" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A59" s="11" t="s">
-        <v>62</v>
+      <c r="A59" s="9" t="s">
+        <v>52</v>
       </c>
       <c r="B59" s="7">
         <v>16</v>
@@ -1639,8 +1624,8 @@
       <c r="D59" s="7"/>
     </row>
     <row r="60" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A60" s="11" t="s">
-        <v>61</v>
+      <c r="A60" s="9" t="s">
+        <v>51</v>
       </c>
       <c r="B60" s="7">
         <v>15</v>
@@ -1651,8 +1636,8 @@
       <c r="D60" s="8"/>
     </row>
     <row r="61" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A61" s="11" t="s">
-        <v>63</v>
+      <c r="A61" s="9" t="s">
+        <v>53</v>
       </c>
       <c r="B61" s="7">
         <v>14</v>
@@ -1663,8 +1648,8 @@
       </c>
     </row>
     <row r="62" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A62" s="11" t="s">
-        <v>64</v>
+      <c r="A62" s="9" t="s">
+        <v>54</v>
       </c>
       <c r="B62" s="7">
         <v>13</v>
@@ -1675,8 +1660,8 @@
       </c>
     </row>
     <row r="63" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A63" s="11" t="s">
-        <v>65</v>
+      <c r="A63" s="9" t="s">
+        <v>55</v>
       </c>
       <c r="B63" s="7">
         <v>13</v>
@@ -1687,8 +1672,8 @@
       </c>
     </row>
     <row r="64" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A64" s="11" t="s">
-        <v>66</v>
+      <c r="A64" s="9" t="s">
+        <v>114</v>
       </c>
       <c r="B64" s="7">
         <v>12</v>
@@ -1697,8 +1682,8 @@
       <c r="D64" s="8"/>
     </row>
     <row r="65" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A65" s="11" t="s">
-        <v>67</v>
+      <c r="A65" s="9" t="s">
+        <v>56</v>
       </c>
       <c r="B65" s="7">
         <v>11</v>
@@ -1709,8 +1694,8 @@
       <c r="D65" s="8"/>
     </row>
     <row r="66" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A66" s="11" t="s">
-        <v>68</v>
+      <c r="A66" s="9" t="s">
+        <v>57</v>
       </c>
       <c r="B66" s="7">
         <v>11</v>
@@ -1719,8 +1704,8 @@
       <c r="D66" s="8"/>
     </row>
     <row r="67" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A67" s="11" t="s">
-        <v>69</v>
+      <c r="A67" s="9" t="s">
+        <v>58</v>
       </c>
       <c r="B67" s="7">
         <v>9</v>
@@ -1731,8 +1716,8 @@
       <c r="D67" s="8"/>
     </row>
     <row r="68" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A68" s="11" t="s">
-        <v>70</v>
+      <c r="A68" s="9" t="s">
+        <v>59</v>
       </c>
       <c r="B68" s="7">
         <v>8</v>
@@ -1743,8 +1728,8 @@
       <c r="D68" s="8"/>
     </row>
     <row r="69" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A69" s="11" t="s">
-        <v>71</v>
+      <c r="A69" s="9" t="s">
+        <v>60</v>
       </c>
       <c r="B69" s="7">
         <v>7</v>
@@ -1753,8 +1738,8 @@
       <c r="D69" s="8"/>
     </row>
     <row r="70" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A70" s="11" t="s">
-        <v>72</v>
+      <c r="A70" s="9" t="s">
+        <v>61</v>
       </c>
       <c r="B70" s="7">
         <v>7</v>
@@ -1765,8 +1750,8 @@
       </c>
     </row>
     <row r="71" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A71" s="11" t="s">
-        <v>79</v>
+      <c r="A71" s="9" t="s">
+        <v>66</v>
       </c>
       <c r="B71" s="7">
         <v>7</v>
@@ -1775,8 +1760,8 @@
       <c r="D71" s="8"/>
     </row>
     <row r="72" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A72" s="11" t="s">
-        <v>73</v>
+      <c r="A72" s="9" t="s">
+        <v>115</v>
       </c>
       <c r="B72" s="7">
         <v>6</v>
@@ -1785,8 +1770,8 @@
       <c r="D72" s="8"/>
     </row>
     <row r="73" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A73" s="11" t="s">
-        <v>74</v>
+      <c r="A73" s="9" t="s">
+        <v>62</v>
       </c>
       <c r="B73" s="7">
         <v>6</v>
@@ -1795,8 +1780,8 @@
       <c r="D73" s="8"/>
     </row>
     <row r="74" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A74" s="11" t="s">
-        <v>75</v>
+      <c r="A74" s="9" t="s">
+        <v>63</v>
       </c>
       <c r="B74" s="7">
         <v>6</v>
@@ -1805,8 +1790,8 @@
       <c r="D74" s="8"/>
     </row>
     <row r="75" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A75" s="11" t="s">
-        <v>76</v>
+      <c r="A75" s="9" t="s">
+        <v>64</v>
       </c>
       <c r="B75" s="7">
         <v>5</v>
@@ -1817,8 +1802,8 @@
       <c r="D75" s="7"/>
     </row>
     <row r="76" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A76" s="11" t="s">
-        <v>77</v>
+      <c r="A76" s="9" t="s">
+        <v>65</v>
       </c>
       <c r="B76" s="7">
         <v>5</v>
@@ -1829,8 +1814,8 @@
       <c r="D76" s="8"/>
     </row>
     <row r="77" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A77" s="11" t="s">
-        <v>78</v>
+      <c r="A77" s="9" t="s">
+        <v>116</v>
       </c>
       <c r="B77" s="7">
         <v>5</v>
@@ -1841,8 +1826,8 @@
       <c r="D77" s="8"/>
     </row>
     <row r="78" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A78" s="11" t="s">
-        <v>89</v>
+      <c r="A78" s="9" t="s">
+        <v>75</v>
       </c>
       <c r="B78" s="7">
         <v>5</v>
@@ -1853,8 +1838,8 @@
       <c r="D78" s="8"/>
     </row>
     <row r="79" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A79" s="11" t="s">
-        <v>80</v>
+      <c r="A79" s="9" t="s">
+        <v>117</v>
       </c>
       <c r="B79" s="7">
         <v>4</v>
@@ -1865,8 +1850,8 @@
       </c>
     </row>
     <row r="80" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A80" s="11" t="s">
-        <v>81</v>
+      <c r="A80" s="9" t="s">
+        <v>67</v>
       </c>
       <c r="B80" s="7">
         <v>4</v>
@@ -1875,8 +1860,8 @@
       <c r="D80" s="8"/>
     </row>
     <row r="81" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A81" s="11" t="s">
-        <v>82</v>
+      <c r="A81" s="9" t="s">
+        <v>68</v>
       </c>
       <c r="B81" s="7">
         <v>4</v>
@@ -1885,8 +1870,8 @@
       <c r="D81" s="8"/>
     </row>
     <row r="82" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A82" s="11" t="s">
-        <v>83</v>
+      <c r="A82" s="9" t="s">
+        <v>69</v>
       </c>
       <c r="B82" s="7">
         <v>4</v>
@@ -1895,8 +1880,8 @@
       <c r="D82" s="7"/>
     </row>
     <row r="83" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A83" s="11" t="s">
-        <v>84</v>
+      <c r="A83" s="9" t="s">
+        <v>70</v>
       </c>
       <c r="B83" s="7">
         <v>4</v>
@@ -1909,8 +1894,8 @@
       </c>
     </row>
     <row r="84" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A84" s="11" t="s">
-        <v>85</v>
+      <c r="A84" s="9" t="s">
+        <v>71</v>
       </c>
       <c r="B84" s="7">
         <v>4</v>
@@ -1919,8 +1904,8 @@
       <c r="D84" s="8"/>
     </row>
     <row r="85" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A85" s="11" t="s">
-        <v>86</v>
+      <c r="A85" s="9" t="s">
+        <v>72</v>
       </c>
       <c r="B85" s="7">
         <v>4</v>
@@ -1929,8 +1914,8 @@
       <c r="D85" s="8"/>
     </row>
     <row r="86" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A86" s="11" t="s">
-        <v>87</v>
+      <c r="A86" s="9" t="s">
+        <v>73</v>
       </c>
       <c r="B86" s="7">
         <v>4</v>
@@ -1939,8 +1924,8 @@
       <c r="D86" s="8"/>
     </row>
     <row r="87" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A87" s="11" t="s">
-        <v>88</v>
+      <c r="A87" s="9" t="s">
+        <v>74</v>
       </c>
       <c r="B87" s="7">
         <v>4</v>
@@ -1953,8 +1938,8 @@
       </c>
     </row>
     <row r="88" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A88" s="11" t="s">
-        <v>90</v>
+      <c r="A88" s="9" t="s">
+        <v>76</v>
       </c>
       <c r="B88" s="7">
         <v>3</v>
@@ -1965,8 +1950,8 @@
       </c>
     </row>
     <row r="89" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A89" s="11" t="s">
-        <v>91</v>
+      <c r="A89" s="9" t="s">
+        <v>77</v>
       </c>
       <c r="B89" s="7">
         <v>3</v>
@@ -1975,8 +1960,8 @@
       <c r="D89" s="8"/>
     </row>
     <row r="90" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A90" s="11" t="s">
-        <v>92</v>
+      <c r="A90" s="9" t="s">
+        <v>78</v>
       </c>
       <c r="B90" s="7">
         <v>3</v>
@@ -1985,8 +1970,8 @@
       <c r="D90" s="8"/>
     </row>
     <row r="91" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A91" s="11" t="s">
-        <v>93</v>
+      <c r="A91" s="9" t="s">
+        <v>79</v>
       </c>
       <c r="B91" s="7">
         <v>3</v>
@@ -1997,8 +1982,8 @@
       </c>
     </row>
     <row r="92" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A92" s="11" t="s">
-        <v>94</v>
+      <c r="A92" s="9" t="s">
+        <v>80</v>
       </c>
       <c r="B92" s="7">
         <v>3</v>
@@ -2007,8 +1992,8 @@
       <c r="D92" s="8"/>
     </row>
     <row r="93" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A93" s="11" t="s">
-        <v>95</v>
+      <c r="A93" s="9" t="s">
+        <v>81</v>
       </c>
       <c r="B93" s="7">
         <v>2</v>
@@ -2017,8 +2002,8 @@
       <c r="D93" s="8"/>
     </row>
     <row r="94" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A94" s="11" t="s">
-        <v>96</v>
+      <c r="A94" s="9" t="s">
+        <v>82</v>
       </c>
       <c r="B94" s="7">
         <v>2</v>
@@ -2029,8 +2014,8 @@
       <c r="D94" s="8"/>
     </row>
     <row r="95" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A95" s="11" t="s">
-        <v>97</v>
+      <c r="A95" s="9" t="s">
+        <v>47</v>
       </c>
       <c r="B95" s="7">
         <v>2</v>
@@ -2041,8 +2026,8 @@
       <c r="D95" s="8"/>
     </row>
     <row r="96" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A96" s="11" t="s">
-        <v>98</v>
+      <c r="A96" s="9" t="s">
+        <v>118</v>
       </c>
       <c r="B96" s="7">
         <v>2</v>
@@ -2051,8 +2036,8 @@
       <c r="D96" s="8"/>
     </row>
     <row r="97" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A97" s="11" t="s">
-        <v>99</v>
+      <c r="A97" s="9" t="s">
+        <v>83</v>
       </c>
       <c r="B97" s="7">
         <v>2</v>
@@ -2061,8 +2046,8 @@
       <c r="D97" s="7"/>
     </row>
     <row r="98" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A98" s="11" t="s">
-        <v>100</v>
+      <c r="A98" s="9" t="s">
+        <v>84</v>
       </c>
       <c r="B98" s="7">
         <v>1</v>
@@ -2071,8 +2056,8 @@
       <c r="D98" s="8"/>
     </row>
     <row r="99" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A99" s="11" t="s">
-        <v>101</v>
+      <c r="A99" s="9" t="s">
+        <v>85</v>
       </c>
       <c r="B99" s="7">
         <v>1</v>
@@ -2081,8 +2066,8 @@
       <c r="D99" s="8"/>
     </row>
     <row r="100" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A100" s="11" t="s">
-        <v>102</v>
+      <c r="A100" s="9" t="s">
+        <v>86</v>
       </c>
       <c r="B100" s="7">
         <v>1</v>
@@ -2093,8 +2078,8 @@
       </c>
     </row>
     <row r="101" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A101" s="11" t="s">
-        <v>103</v>
+      <c r="A101" s="9" t="s">
+        <v>119</v>
       </c>
       <c r="B101" s="7">
         <v>1</v>
@@ -2105,8 +2090,8 @@
       <c r="D101" s="8"/>
     </row>
     <row r="102" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A102" s="11" t="s">
-        <v>104</v>
+      <c r="A102" s="9" t="s">
+        <v>87</v>
       </c>
       <c r="B102" s="7">
         <v>1</v>
@@ -2115,8 +2100,8 @@
       <c r="D102" s="8"/>
     </row>
     <row r="103" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A103" s="11" t="s">
-        <v>105</v>
+      <c r="A103" s="9" t="s">
+        <v>88</v>
       </c>
       <c r="B103" s="7">
         <v>1</v>
@@ -2125,8 +2110,8 @@
       <c r="D103" s="8"/>
     </row>
     <row r="104" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A104" s="11" t="s">
-        <v>106</v>
+      <c r="A104" s="9" t="s">
+        <v>89</v>
       </c>
       <c r="B104" s="7">
         <v>1</v>
@@ -2137,8 +2122,8 @@
       <c r="D104" s="8"/>
     </row>
     <row r="105" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A105" s="11" t="s">
-        <v>107</v>
+      <c r="A105" s="9" t="s">
+        <v>90</v>
       </c>
       <c r="B105" s="7">
         <v>1</v>
@@ -2147,8 +2132,8 @@
       <c r="D105" s="8"/>
     </row>
     <row r="106" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A106" s="11" t="s">
-        <v>108</v>
+      <c r="A106" s="9" t="s">
+        <v>91</v>
       </c>
       <c r="B106" s="7">
         <v>1</v>
@@ -2157,8 +2142,8 @@
       <c r="D106" s="8"/>
     </row>
     <row r="107" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A107" s="11" t="s">
-        <v>109</v>
+      <c r="A107" s="9" t="s">
+        <v>92</v>
       </c>
       <c r="B107" s="7">
         <v>1</v>
@@ -2167,8 +2152,8 @@
       <c r="D107" s="8"/>
     </row>
     <row r="108" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A108" s="11" t="s">
-        <v>110</v>
+      <c r="A108" s="9" t="s">
+        <v>93</v>
       </c>
       <c r="B108" s="7">
         <v>1</v>
@@ -2177,8 +2162,8 @@
       <c r="D108" s="8"/>
     </row>
     <row r="109" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A109" s="11" t="s">
-        <v>111</v>
+      <c r="A109" s="9" t="s">
+        <v>94</v>
       </c>
       <c r="B109" s="7">
         <v>1</v>
@@ -2189,8 +2174,8 @@
       </c>
     </row>
     <row r="110" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A110" s="11" t="s">
-        <v>112</v>
+      <c r="A110" s="9" t="s">
+        <v>120</v>
       </c>
       <c r="B110" s="7">
         <v>1</v>
@@ -2199,8 +2184,8 @@
       <c r="D110" s="8"/>
     </row>
     <row r="111" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A111" s="11" t="s">
-        <v>113</v>
+      <c r="A111" s="9" t="s">
+        <v>95</v>
       </c>
       <c r="B111" s="7">
         <v>1</v>
@@ -2209,8 +2194,8 @@
       <c r="D111" s="8"/>
     </row>
     <row r="112" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A112" s="11" t="s">
-        <v>114</v>
+      <c r="A112" s="9" t="s">
+        <v>96</v>
       </c>
       <c r="B112" s="7">
         <v>1</v>
@@ -2219,8 +2204,8 @@
       <c r="D112" s="8"/>
     </row>
     <row r="113" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A113" s="11" t="s">
-        <v>115</v>
+      <c r="A113" s="9" t="s">
+        <v>97</v>
       </c>
       <c r="B113" s="7">
         <v>1</v>
@@ -2229,8 +2214,8 @@
       <c r="D113" s="8"/>
     </row>
     <row r="114" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A114" s="11" t="s">
-        <v>116</v>
+      <c r="A114" s="9" t="s">
+        <v>98</v>
       </c>
       <c r="B114" s="7">
         <v>1</v>
@@ -2239,8 +2224,8 @@
       <c r="D114" s="8"/>
     </row>
     <row r="115" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A115" s="11" t="s">
-        <v>117</v>
+      <c r="A115" s="9" t="s">
+        <v>99</v>
       </c>
       <c r="B115" s="7">
         <v>1</v>
@@ -2251,8 +2236,8 @@
       <c r="D115" s="7"/>
     </row>
     <row r="116" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A116" s="11" t="s">
-        <v>118</v>
+      <c r="A116" s="9" t="s">
+        <v>100</v>
       </c>
       <c r="B116" s="7">
         <v>1</v>
@@ -2261,8 +2246,8 @@
       <c r="D116" s="8"/>
     </row>
     <row r="117" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A117" s="11" t="s">
-        <v>119</v>
+      <c r="A117" s="9" t="s">
+        <v>101</v>
       </c>
       <c r="B117" s="7">
         <v>1</v>
@@ -2271,8 +2256,8 @@
       <c r="D117" s="7"/>
     </row>
     <row r="118" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A118" s="11" t="s">
-        <v>120</v>
+      <c r="A118" s="9" t="s">
+        <v>102</v>
       </c>
       <c r="B118" s="7">
         <v>1</v>
@@ -2281,8 +2266,8 @@
       <c r="D118" s="8"/>
     </row>
     <row r="119" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A119" s="11" t="s">
-        <v>121</v>
+      <c r="A119" s="9" t="s">
+        <v>47</v>
       </c>
       <c r="B119" s="8">
         <v>1</v>
@@ -2293,8 +2278,8 @@
       </c>
     </row>
     <row r="120" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A120" s="11" t="s">
-        <v>122</v>
+      <c r="A120" s="9" t="s">
+        <v>121</v>
       </c>
       <c r="B120" s="8">
         <v>1</v>
@@ -2303,8 +2288,8 @@
       <c r="D120" s="8"/>
     </row>
     <row r="121" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A121" s="11" t="s">
-        <v>123</v>
+      <c r="A121" s="9" t="s">
+        <v>122</v>
       </c>
       <c r="B121" s="8">
         <v>1</v>
@@ -2313,8 +2298,8 @@
       <c r="D121" s="7"/>
     </row>
     <row r="122" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A122" s="11" t="s">
-        <v>124</v>
+      <c r="A122" s="9" t="s">
+        <v>103</v>
       </c>
       <c r="B122" s="8">
         <v>1</v>
@@ -2323,8 +2308,8 @@
       <c r="D122" s="8"/>
     </row>
     <row r="123" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A123" s="11" t="s">
-        <v>125</v>
+      <c r="A123" s="9" t="s">
+        <v>9</v>
       </c>
       <c r="B123" s="8">
         <v>1</v>
@@ -2334,7 +2319,7 @@
     </row>
     <row r="124" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A124" s="8" t="s">
-        <v>126</v>
+        <v>104</v>
       </c>
       <c r="B124" s="8"/>
       <c r="C124" s="8">
@@ -2344,7 +2329,7 @@
     </row>
     <row r="125" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A125" s="8" t="s">
-        <v>127</v>
+        <v>105</v>
       </c>
       <c r="B125" s="8"/>
       <c r="C125" s="8">
@@ -2356,7 +2341,7 @@
     </row>
     <row r="126" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A126" s="8" t="s">
-        <v>128</v>
+        <v>106</v>
       </c>
       <c r="B126" s="8"/>
       <c r="C126" s="8">
@@ -2365,6 +2350,7 @@
       <c r="D126" s="8"/>
     </row>
   </sheetData>
+  <autoFilter ref="A2:D126" xr:uid="{6FF21BEA-C43D-4505-A32A-AD9C985C7FE4}"/>
   <mergeCells count="1">
     <mergeCell ref="B1:D1"/>
   </mergeCells>
